--- a/biology/Histoire de la zoologie et de la botanique/Henry_Fairfield_Osborn/Henry_Fairfield_Osborn.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henry_Fairfield_Osborn/Henry_Fairfield_Osborn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Fairfield Osborn est un  paléontologue, spécialiste des mammifères fossiles, né le 8 août 1857 à Fairfield dans le Connecticut et mort le 6 novembre 1935 à New York. Il découvre et nomme les fameux Tyrannosaurus rex en 1905 et Velociraptor en 1924.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études d’abord à New York puis au College of New Jersey (connu aujourd’hui sous le nom de l’université de Princeton) jusqu’en 1877. En 1879-1880, il passe une année à l’université de Cambridge où il suit les cours d’anatomie comparée de Thomas Henry Huxley (1825-1895) et d’embryologie de Francis Maitland Balfour (1851-1882). Il obtient en 1881, un doctorat de science  à Princeton.
 Il ne montre toutefois aucune inclination pour les sciences durant sa jeunesse. C’est la rencontre avec James McCosh (1811-1894) et surtout avec le professeur de géologie Arnold Henry Guyot (1807-1884) qui l’oriente vers les sciences.
@@ -550,7 +564,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Synapsida, 1903
 Diapsida, 1903
